--- a/case_study/experiments/policy1Hz/single/adversarial/Slower.xlsx
+++ b/case_study/experiments/policy1Hz/single/adversarial/Slower.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nicopellegrinelli\abz2025_casestudy_autonomous_driving\enforcement\data\single\adversarial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\abz2025_casestudy_autonomous_driving\case_study\experiments\policy1Hz\single\adversarial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65603BFC-FC6B-4AA8-96B3-9DCD74B78D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB719CEA-6EAA-430D-94AC-44DC6410381C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="26">
   <si>
     <t>execution_id</t>
   </si>
@@ -90,6 +103,15 @@
   <si>
     <t>44b97aaf-3237-4a8d-981e-a3b5678e544f</t>
   </si>
+  <si>
+    <t>N. crash:</t>
+  </si>
+  <si>
+    <t>Mean:</t>
+  </si>
+  <si>
+    <t>Standard Deviation:</t>
+  </si>
 </sst>
 </file>
 
@@ -107,6 +129,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -451,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -559,7 +582,7 @@
         <v>12332.337777000021</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -609,7 +632,7 @@
         <v>14446.842479000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -659,7 +682,7 @@
         <v>14242.18743799997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -709,7 +732,7 @@
         <v>14540.65848699997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -759,7 +782,7 @@
         <v>14705.883159999979</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -809,7 +832,7 @@
         <v>14430.9237540001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -859,7 +882,7 @@
         <v>14635.56973499999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -909,7 +932,7 @@
         <v>14277.702012999949</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -959,7 +982,7 @@
         <v>14317.486988000161</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1032,7 @@
         <v>14273.467908000161</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1082,7 @@
         <v>12609.512733999511</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1109,7 +1132,7 @@
         <v>14059.17736399897</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1182,7 @@
         <v>14336.793316999319</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1232,7 @@
         <v>14443.163163001371</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1282,7 @@
         <v>14198.359553000049</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +1332,7 @@
         <v>14533.207580998351</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1382,7 @@
         <v>14329.86700900074</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1432,7 @@
         <v>14930.350590000669</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1459,7 +1482,7 @@
         <v>13942.91596999938</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1532,7 @@
         <v>14524.18379099981</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1582,7 @@
         <v>14368.059290000019</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +1632,7 @@
         <v>14221.2557870007</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1682,7 @@
         <v>14480.977875000461</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1709,7 +1732,7 @@
         <v>14486.239382000351</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1759,7 +1782,7 @@
         <v>14251.99865000104</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1832,7 @@
         <v>14416.15776799881</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1882,7 @@
         <v>15187.57978600115</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1909,7 +1932,7 @@
         <v>15886.362836999981</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1959,7 +1982,7 @@
         <v>15074.12445400041</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2009,7 +2032,7 @@
         <v>14345.85482999864</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2059,7 +2082,7 @@
         <v>14232.040516000779</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2109,7 +2132,7 @@
         <v>14308.017539999129</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2159,7 +2182,7 @@
         <v>14476.84858999855</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +2232,7 @@
         <v>14107.04309700122</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2259,7 +2282,7 @@
         <v>14326.52658000006</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2309,7 +2332,7 @@
         <v>14425.58997000015</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2359,7 +2382,7 @@
         <v>14114.43402999976</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2409,7 +2432,7 @@
         <v>15056.990961998959</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2459,7 +2482,7 @@
         <v>14396.33717800098</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2532,7 @@
         <v>14130.914642999411</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2582,7 @@
         <v>14063.98970800001</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2609,7 +2632,7 @@
         <v>15206.11548999841</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2659,7 +2682,7 @@
         <v>16345.486797999911</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2709,7 +2732,7 @@
         <v>14024.097146000709</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +2782,7 @@
         <v>14108.790269001471</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2809,7 +2832,7 @@
         <v>13842.701825999029</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2882,7 @@
         <v>14228.63432199847</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2932,7 @@
         <v>15254.90960500065</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +2982,7 @@
         <v>15702.99831400007</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3007,6 +3030,89 @@
       </c>
       <c r="P51">
         <v>14240.13907900007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53">
+        <f>COUNTIF(G2:G51,"True")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:P54" si="0">AVERAGE(I2:I51)</f>
+        <v>1.4633809822082515</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>14.666601520088989</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>3.5947960600969964</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>2882.1477338595842</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>43.770290879979257</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>14428.436142659953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:P55" si="1">_xlfn.STDEV.S(I2:I51)</f>
+        <v>1.4748222325763425E-2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>2.4094569350350787</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>0.43424042435343202</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>205.12512086414102</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>10.048098418292394</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>639.04141208124724</v>
       </c>
     </row>
   </sheetData>

--- a/case_study/experiments/policy1Hz/single/adversarial/Slower.xlsx
+++ b/case_study/experiments/policy1Hz/single/adversarial/Slower.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\abz2025_casestudy_autonomous_driving\case_study\experiments\policy1Hz\single\adversarial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nicopellegrinelli\abz2025_casestudy_autonomous_driving\enforcement\data\single\adversarial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB719CEA-6EAA-430D-94AC-44DC6410381C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65603BFC-FC6B-4AA8-96B3-9DCD74B78D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="23">
   <si>
     <t>execution_id</t>
   </si>
@@ -103,15 +90,6 @@
   <si>
     <t>44b97aaf-3237-4a8d-981e-a3b5678e544f</t>
   </si>
-  <si>
-    <t>N. crash:</t>
-  </si>
-  <si>
-    <t>Mean:</t>
-  </si>
-  <si>
-    <t>Standard Deviation:</t>
-  </si>
 </sst>
 </file>
 
@@ -129,7 +107,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -474,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -582,7 +559,7 @@
         <v>12332.337777000021</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -632,7 +609,7 @@
         <v>14446.842479000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -682,7 +659,7 @@
         <v>14242.18743799997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -732,7 +709,7 @@
         <v>14540.65848699997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -782,7 +759,7 @@
         <v>14705.883159999979</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -832,7 +809,7 @@
         <v>14430.9237540001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -882,7 +859,7 @@
         <v>14635.56973499999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -932,7 +909,7 @@
         <v>14277.702012999949</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -982,7 +959,7 @@
         <v>14317.486988000161</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1009,7 @@
         <v>14273.467908000161</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1059,7 @@
         <v>12609.512733999511</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1109,7 @@
         <v>14059.17736399897</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1159,7 @@
         <v>14336.793316999319</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1209,7 @@
         <v>14443.163163001371</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1259,7 @@
         <v>14198.359553000049</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1332,7 +1309,7 @@
         <v>14533.207580998351</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1382,7 +1359,7 @@
         <v>14329.86700900074</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1409,7 @@
         <v>14930.350590000669</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1482,7 +1459,7 @@
         <v>13942.91596999938</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1532,7 +1509,7 @@
         <v>14524.18379099981</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1582,7 +1559,7 @@
         <v>14368.059290000019</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1632,7 +1609,7 @@
         <v>14221.2557870007</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +1659,7 @@
         <v>14480.977875000461</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1732,7 +1709,7 @@
         <v>14486.239382000351</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1782,7 +1759,7 @@
         <v>14251.99865000104</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1832,7 +1809,7 @@
         <v>14416.15776799881</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1882,7 +1859,7 @@
         <v>15187.57978600115</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1932,7 +1909,7 @@
         <v>15886.362836999981</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1982,7 +1959,7 @@
         <v>15074.12445400041</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +2009,7 @@
         <v>14345.85482999864</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2082,7 +2059,7 @@
         <v>14232.040516000779</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2132,7 +2109,7 @@
         <v>14308.017539999129</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2182,7 +2159,7 @@
         <v>14476.84858999855</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2232,7 +2209,7 @@
         <v>14107.04309700122</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2282,7 +2259,7 @@
         <v>14326.52658000006</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2332,7 +2309,7 @@
         <v>14425.58997000015</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2382,7 +2359,7 @@
         <v>14114.43402999976</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2432,7 +2409,7 @@
         <v>15056.990961998959</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2459,7 @@
         <v>14396.33717800098</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2532,7 +2509,7 @@
         <v>14130.914642999411</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2582,7 +2559,7 @@
         <v>14063.98970800001</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2632,7 +2609,7 @@
         <v>15206.11548999841</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2682,7 +2659,7 @@
         <v>16345.486797999911</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2732,7 +2709,7 @@
         <v>14024.097146000709</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2782,7 +2759,7 @@
         <v>14108.790269001471</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2832,7 +2809,7 @@
         <v>13842.701825999029</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2882,7 +2859,7 @@
         <v>14228.63432199847</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2932,7 +2909,7 @@
         <v>15254.90960500065</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2982,7 +2959,7 @@
         <v>15702.99831400007</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3030,89 +3007,6 @@
       </c>
       <c r="P51">
         <v>14240.13907900007</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53">
-        <f>COUNTIF(G2:G51,"True")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54">
-        <f t="shared" ref="I54:P54" si="0">AVERAGE(I2:I51)</f>
-        <v>1.4633809822082515</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>14.666601520088989</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="0"/>
-        <v>3.5947960600969964</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="0"/>
-        <v>2882.1477338595842</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="0"/>
-        <v>43.770290879979257</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="0"/>
-        <v>14428.436142659953</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55">
-        <f t="shared" ref="I55:P55" si="1">_xlfn.STDEV.S(I2:I51)</f>
-        <v>1.4748222325763425E-2</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="1"/>
-        <v>2.4094569350350787</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="1"/>
-        <v>0.43424042435343202</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="1"/>
-        <v>205.12512086414102</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="1"/>
-        <v>10.048098418292394</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="1"/>
-        <v>639.04141208124724</v>
       </c>
     </row>
   </sheetData>
